--- a/IEC_wind_class.xlsx
+++ b/IEC_wind_class.xlsx
@@ -478,13 +478,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -573,13 +573,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>3</v>
@@ -668,13 +668,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -689,13 +689,13 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -787,13 +787,13 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1075,13 +1075,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>3</v>
@@ -1158,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1167,13 +1167,13 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>3</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -1354,13 +1354,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1452,19 +1452,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21">
         <v>3</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>3</v>
@@ -2421,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2510,19 +2510,19 @@
         <v>3</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>2</v>
       </c>
       <c r="AE22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2530,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>3</v>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA24">
         <v>3</v>
       </c>
       <c r="AB24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2765,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="AE25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF25">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB27">
         <v>3</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE29">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC30">
         <v>3</v>
@@ -3314,7 +3314,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z31">
         <v>3</v>
@@ -3412,7 +3412,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -3510,10 +3510,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3576,16 +3576,16 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33">
         <v>3</v>
       </c>
       <c r="Z33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB33">
         <v>2</v>
@@ -3594,13 +3594,13 @@
         <v>3</v>
       </c>
       <c r="AD33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W34">
         <v>3</v>
@@ -3677,28 +3677,28 @@
         <v>3</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC34">
         <v>3</v>
       </c>
       <c r="AD34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -3781,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC35">
         <v>3</v>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>3</v>
@@ -3879,10 +3879,10 @@
         <v>3</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC36">
         <v>3</v>
@@ -3894,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="AF36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -3959,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37">
         <v>2</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z37">
         <v>3</v>
@@ -3980,19 +3980,19 @@
         <v>3</v>
       </c>
       <c r="AB37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD37">
         <v>3</v>
       </c>
       <c r="AE37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4054,25 +4054,25 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>3</v>
       </c>
       <c r="V38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -4084,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="AD38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF38">
         <v>2</v>
